--- a/src/main/java/com/example/demo/database/中国银行.xlsx
+++ b/src/main/java/com/example/demo/database/中国银行.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowHeight="11640" windowWidth="19200" xWindow="0" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="中行" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="中行" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="94">
   <si>
     <t>序号</t>
   </si>
@@ -280,12 +280,91 @@
   <si>
     <t>张建中</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>申请面积（平米）</t>
+  </si>
+  <si>
+    <t>第二期缴款金额（万元）</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -344,32 +423,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -378,10 +457,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -537,7 +616,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -546,13 +625,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -562,7 +641,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -571,7 +650,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -580,7 +659,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -590,12 +669,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -626,7 +705,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -645,7 +724,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -666,15 +745,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,10 +775,16 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -715,8 +800,12 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -726,8 +815,8 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -743,8 +832,12 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -754,8 +847,8 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -782,8 +875,8 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="3">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -810,8 +903,8 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -838,8 +931,8 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -866,8 +959,8 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -894,8 +987,8 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="3">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -922,8 +1015,8 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="3">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -950,8 +1043,8 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="3">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -967,8 +1060,12 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -978,8 +1075,8 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="3">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1006,8 +1103,8 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="3">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -1034,8 +1131,8 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="3">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1062,8 +1159,8 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="3">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1079,8 +1176,12 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1090,8 +1191,8 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="3">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -1118,8 +1219,8 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="3">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -1135,8 +1236,12 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1146,8 +1251,8 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="3">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -1174,8 +1279,8 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="3">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -1202,8 +1307,8 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="3">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
@@ -1219,8 +1324,12 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1230,8 +1339,8 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="3">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
@@ -1258,15 +1367,27 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1276,15 +1397,27 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="s">
+        <v>88</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1294,15 +1427,27 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" t="s">
+        <v>88</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1312,15 +1457,27 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" t="s">
+        <v>88</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1330,15 +1487,27 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
+        <v>88</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1348,15 +1517,27 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="s">
+        <v>88</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1366,15 +1547,27 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" t="s">
+        <v>88</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1384,15 +1577,27 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" t="s">
+        <v>88</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1402,15 +1607,27 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s">
+        <v>88</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1420,15 +1637,27 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" t="s">
+        <v>88</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1438,15 +1667,27 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1456,15 +1697,27 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" t="s">
+        <v>88</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1474,15 +1727,27 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="s">
+        <v>88</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1492,15 +1757,27 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s">
+        <v>88</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1510,15 +1787,27 @@
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s">
+        <v>88</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1528,15 +1817,27 @@
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="s">
+        <v>88</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1546,15 +1847,27 @@
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" t="s">
+        <v>88</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1564,15 +1877,27 @@
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" t="s">
+        <v>88</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -1582,15 +1907,27 @@
       <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" t="s">
+        <v>88</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1600,15 +1937,27 @@
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" t="s">
+        <v>88</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1618,15 +1967,27 @@
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" t="s">
+        <v>88</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1636,15 +1997,27 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" t="s">
+        <v>88</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -1654,15 +2027,27 @@
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="H44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" t="s">
+        <v>88</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -1672,15 +2057,27 @@
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="H45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" t="s">
+        <v>88</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -1690,15 +2087,27 @@
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="H46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" t="s">
+        <v>88</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -1709,8 +2118,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -1723,8 +2132,8 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -1737,7 +2146,7 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="200"/>
 </worksheet>
 </file>